--- a/medicine/Pharmacie/Imipénem/Imipénem.xlsx
+++ b/medicine/Pharmacie/Imipénem/Imipénem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'imipénem est un agent antibiotique de la classe des carbapénèmes. L'imipénem est un dérivé semi-synthétique de la thiénamycine (voir azoline) produite par Steptomyces cattleya. L'imipénem étant inactivé par la déhydropeptidase-I rénale, on lui ajoute de la cilastatine sodique qui est un inhibiteur compétitif réversible de cette enzyme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Posologie simplifiée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adulte et enfant de + de 40 kg : 1  à   2 g par jour en 2 ou 4 perfusions. Dose maxi 50 mg·kg-1·j-1 avec 4 g par jour maximum.
 Enfant de moins de 40 kg : 60 mg·kg-1·j-1 en 4 perfusions, avec une dose maxi de 2 g par jour.</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Entre autres (liste non exhaustive).
 Troubles cutanés
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imipénem est indiqué pour :
 les infections intra-abdominales ;
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,9 +650,11 @@
           <t>Modalités d'utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imipénem est toujours utilisé en association avec de la cilastatine. Le produit étant commercialisé sous forme de poudre, il est nécessaire de le reconstituer[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imipénem est toujours utilisé en association avec de la cilastatine. Le produit étant commercialisé sous forme de poudre, il est nécessaire de le reconstituer.
 Il existe une poudre pour injection intraveineuse et une suspension pour injection intramusculaire.
 Il faut dissoudre la poudre pour préparation injectable IV dans du soluté NaCl 0,9 % ou du glucosé 5 % ou 10 %, 5 mg de poudre sont dissoutes dans 1 ml de solvant.
 Le produit se dissout après 3 minutes d'agitation vigoureuse.
@@ -650,7 +670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,10 +688,12 @@
           <t>Réévaluation du traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour tous les carbapénèmes et de nombreux antibiotiques de dernière ligne, il est nécessaire de réévaluer l'intérêt du traitement après 48-72 heures de traitement[2]. Après réalisation/lecture de l'antibiogramme, le clinicien doit modifier la prescription pour un antibiotique plus commun, auquel le micro-organisme incriminé est sensible.
-Ceci permet de réduire l'utilisation de ces traitements, et tend à réduire l'incidence de bactéries résistantes aux carbapénèmes[2]. Celles-ci conduisent à une impasse thérapeutique gravissime.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour tous les carbapénèmes et de nombreux antibiotiques de dernière ligne, il est nécessaire de réévaluer l'intérêt du traitement après 48-72 heures de traitement. Après réalisation/lecture de l'antibiogramme, le clinicien doit modifier la prescription pour un antibiotique plus commun, auquel le micro-organisme incriminé est sensible.
+Ceci permet de réduire l'utilisation de ces traitements, et tend à réduire l'incidence de bactéries résistantes aux carbapénèmes. Celles-ci conduisent à une impasse thérapeutique gravissime.
 </t>
         </is>
       </c>
@@ -682,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Imip%C3%A9nem</t>
+          <t>Imipénem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,9 +722,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imipénem fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imipénem fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
